--- a/data/SARVerification.xlsx
+++ b/data/SARVerification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -51,12 +51,6 @@
 Reconsideration due in: 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">OI decision date: 2008
-Exemption 1: Law enforcement
-Exemption 2: Personal information where the applicant is a 3rd party
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Closure criterion: Contains sensitive personal information which would substantially distress or endanger a living person or his or her descendants
 Lord Chancellor's Instrument: LCI 143 - Series containing both closure and accelerated opening instruments
 LCI signed date: 1999 June 29
@@ -122,6 +116,12 @@
     <t xml:space="preserve">
 FOI decision date: 2010
 Exemption: Personal information where the applicant is a 3rd party
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOI decision date: 2008
+Exemption 1: Law enforcement
+Exemption 2: Personal information where the applicant is a 3rd party
 </t>
   </si>
 </sst>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -504,18 +504,18 @@
     </row>
     <row r="2" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -526,68 +526,68 @@
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
